--- a/files/reporte-movilidad-salida.xlsx
+++ b/files/reporte-movilidad-salida.xlsx
@@ -617,7 +617,7 @@
         <v>31</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
